--- a/chitaem_vmeste_book_list.xlsx
+++ b/chitaem_vmeste_book_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="419">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">[Армения]</t>
   </si>
   <si>
-    <t xml:space="preserve">[реализм, фантастика]</t>
+    <t xml:space="preserve">[магический реализм]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1010079085-dom-v-kotorom-mariam-petrosyan, https://fantlab.ru/work180371]</t>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">[Италия]</t>
   </si>
   <si>
-    <t xml:space="preserve">[детектив, историческая проза]</t>
+    <t xml:space="preserve">[детектив, историческая проза, постмодернизм]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1001404788-imya-rozy-umberto-eko, https://fantlab.ru/work42198]</t>
@@ -400,6 +400,9 @@
     <t xml:space="preserve">[Дэвид Митчелл]</t>
   </si>
   <si>
+    <t xml:space="preserve">[фантастика, антиутопия, постапокалиптика]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1002275282-oblachnyj-atlas-devid-stiven-mitchell, https://fantlab.ru/work38452]</t>
   </si>
   <si>
@@ -469,6 +472,9 @@
     <t xml:space="preserve">[Нил Гейман]</t>
   </si>
   <si>
+    <t xml:space="preserve">[магический реализм, фэнтези, мистика] </t>
+  </si>
+  <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1007400808-amerikanskie-bogi-nil-gejman, https://fantlab.ru/work10134]</t>
   </si>
   <si>
@@ -517,6 +523,9 @@
     <t xml:space="preserve">[Владимир Познер]</t>
   </si>
   <si>
+    <t xml:space="preserve">[автобиография, публицистика]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[https://ru.wikipedia.org/wiki/%D0%9F%D1%80%D0%BE%D1%89%D0%B0%D0%BD%D0%B8%D0%B5_%D1%81_%D0%B8%D0%BB%D0%BB%D1%8E%D0%B7%D0%B8%D1%8F%D0%BC%D0%B8]</t>
   </si>
   <si>
@@ -526,7 +535,7 @@
     <t xml:space="preserve">[Владимир Цветов]</t>
   </si>
   <si>
-    <t xml:space="preserve">[очерк]</t>
+    <t xml:space="preserve">[публицистика]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1000314558-pyatnadtsatyj-kamen-sada-rjoandzi-tsvetov-vladimir, https://fantlab.ru/work1304056]</t>
@@ -544,6 +553,9 @@
     <t xml:space="preserve">«Галапагосы»</t>
   </si>
   <si>
+    <t xml:space="preserve">[фантастика, постапокалиптика]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1002734514-galapagosy-kurt-vonnegut, https://fantlab.ru/work3804]</t>
   </si>
   <si>
@@ -574,7 +586,7 @@
     <t xml:space="preserve">[Оноре де Бальзак]</t>
   </si>
   <si>
-    <t xml:space="preserve">[притча]</t>
+    <t xml:space="preserve">[сказка, притча]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1008738202-shagrenevaya-kozha-onore-de-balzak, https://fantlab.ru/work172664]</t>
@@ -616,6 +628,9 @@
     <t xml:space="preserve">«Рождественские повести»</t>
   </si>
   <si>
+    <t xml:space="preserve">[сказка, притча, мистика]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1008802498-rozhdestvenskie-istorii-charlz-dikkens, https://fantlab.ru/work154462]</t>
   </si>
   <si>
@@ -703,6 +718,9 @@
     <t xml:space="preserve">[Татьяна Толстая]</t>
   </si>
   <si>
+    <t xml:space="preserve">[фантастика, постапокалиптика, антиутопия]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1002006261-kys-tatyana-tolstaya, https://fantlab.ru/work113455]</t>
   </si>
   <si>
@@ -718,6 +736,9 @@
     <t xml:space="preserve">[Илья Ильф и Евгений Петров]</t>
   </si>
   <si>
+    <t xml:space="preserve">[документальное произведение]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1008836065-odnoetazhnaya-amerika-ilya-ilf-evgenij-petrov, https://fantlab.ru/work187509]</t>
   </si>
   <si>
@@ -820,6 +841,9 @@
     <t xml:space="preserve">[Джонатан Литтелл]</t>
   </si>
   <si>
+    <t xml:space="preserve">[историческая проза, реализм]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1003317413-blagovolitelnitsy-dzhonatan-littell, https://fantlab.ru/work273659]</t>
   </si>
   <si>
@@ -868,7 +892,7 @@
     <t xml:space="preserve">[Михаэль Энде]</t>
   </si>
   <si>
-    <t xml:space="preserve">[притча, фэнтези]</t>
+    <t xml:space="preserve">[сказка, притча, фэнтези]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1005003211-istoriya-kontsa-kotoroj-net-mihael-ende, https://fantlab.ru/work246221]</t>
@@ -988,67 +1012,13 @@
     <t xml:space="preserve">«Луна и грош»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Сомерсет Моэм]</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">[https://www.chitai-gorod.ru/product/luna-i-grosh-2410257, https://fantlab.ru/work215025]</t>
   </si>
   <si>
     <t xml:space="preserve">«Даниэль Штайн, переводчик»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Людмила Улицкая]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[реализм, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">историческая проза]</t>
-    </r>
+    <t xml:space="preserve">[реализм, историческая проза]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1009208620-daniel-shtajn-perevodchik-lyudmila-ulitskaya, https://fantlab.ru/work264772]</t>
@@ -1057,42 +1027,10 @@
     <t xml:space="preserve">«Хладнокровное убийство»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Трумен Капоте]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[реализм, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">триллер]</t>
-    </r>
+    <t xml:space="preserve">[Трумен Капоте]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[реализм, триллер]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1005908245-hladnokrovnoe-ubijstvo-trumen-kapote, https://fantlab.ru/work231716]</t>
@@ -1101,23 +1039,7 @@
     <t xml:space="preserve">«Проект «Аве Мария»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Энди Вейер]</t>
-    </r>
+    <t xml:space="preserve">[Энди Вейер]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1008633982-proekt-ave-mariya-endi-vejer, https://fantlab.ru/work1303446]</t>
@@ -1126,23 +1048,7 @@
     <t xml:space="preserve">«Сердце тьмы»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Джозеф Конрад]</t>
-    </r>
+    <t xml:space="preserve">[Джозеф Конрад]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.labirint.ru/books/804563/, https://fantlab.ru/work217259]</t>
@@ -1163,23 +1069,7 @@
     <t xml:space="preserve">«Моби Дик, или Белый кит»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Герман Мелвилл]</t>
-    </r>
+    <t xml:space="preserve">[Герман Мелвилл]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1009340605-mobi-dik-ili-belyj-kit-german-melvill, https://fantlab.ru/work223350]</t>
@@ -1188,23 +1078,7 @@
     <t xml:space="preserve">«Бегущий за ветром»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Халед Хоссейни]</t>
-    </r>
+    <t xml:space="preserve">[Халед Хоссейни]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1002062846-beguschij-za-vetrom-haled-hossejni, https://fantlab.ru/work458525]</t>
@@ -1213,23 +1087,7 @@
     <t xml:space="preserve">«День триффидов»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Джон Уиндем]</t>
-    </r>
+    <t xml:space="preserve">[Джон Уиндем]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1001525317-den-triffidov-dzhon-uindem, https://fantlab.ru/work15067]</t>
@@ -1244,23 +1102,7 @@
     <t xml:space="preserve">«Задача трёх тел»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Лю Цысинь]</t>
-    </r>
+    <t xml:space="preserve">[Лю Цысинь]</t>
   </si>
   <si>
     <t xml:space="preserve">[Китай]</t>
@@ -1272,23 +1114,7 @@
     <t xml:space="preserve">«Роман без вранья»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Анатолий Мариенгоф]</t>
-    </r>
+    <t xml:space="preserve">[Анатолий Мариенгоф]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1001668438-roman-bez-vranya-anatolij-mariengof, https://fantlab.ru/work437963]</t>
@@ -1303,23 +1129,7 @@
     <t xml:space="preserve">«Вся королевская рать»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Роберт Пенн Уоррен]</t>
-    </r>
+    <t xml:space="preserve">[Роберт Пенн Уоррен]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1003483984-vsya-korolevskaya-rat-robert-penn-uorren, https://fantlab.ru/work337110]</t>
@@ -1328,48 +1138,13 @@
     <t xml:space="preserve">«Цитадель»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Арчибальд Кронин]</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1002513813-tsitadel-archibald-kronin, https://fantlab.ru/work588483]</t>
   </si>
   <si>
     <t xml:space="preserve">«Щит и меч»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Вадим Кожевников]</t>
-    </r>
+    <t xml:space="preserve">[Вадим Кожевников]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1009033915-schit-i-mech-vadim-kozhevnikov, https://fantlab.ru/work270491]</t>
@@ -1378,23 +1153,7 @@
     <t xml:space="preserve">«Не отпускай меня»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Кадзуо Исигуро]</t>
-    </r>
+    <t xml:space="preserve">[Кадзуо Исигуро]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1008021736-ne-otpuskaj-menya-kadzuo-isiguro, https://fantlab.ru/work38434]</t>
@@ -1403,23 +1162,10 @@
     <t xml:space="preserve">«Лисьи броды»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Анна Старобинец]</t>
-    </r>
+    <t xml:space="preserve">[Анна Старобинец]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[мистика, магический реализм]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1007150359-lisi-brody-anna-starobinets, https://fantlab.ru/work1549331]</t>
@@ -1428,23 +1174,7 @@
     <t xml:space="preserve">«Козёл отпущения»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Дафна Дю Морье]</t>
-    </r>
+    <t xml:space="preserve">[Дафна Дю Морье]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1002052916-kozel-otpuscheniya-dafna-dyumore, https://fantlab.ru/work180574]</t>
@@ -1453,48 +1183,13 @@
     <t xml:space="preserve">«Бесы»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Фёдор Достоевский]</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1008970663-besy-fjodor-dostoevskij, https://fantlab.ru/work281116]</t>
   </si>
   <si>
     <t xml:space="preserve">«Трое в лодке, не считая собаки»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Джером К. Джером]</t>
-    </r>
+    <t xml:space="preserve">[Джером К. Джером]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.labirint.ru/books/962952/, https://fantlab.ru/work205174]</t>
@@ -1503,23 +1198,7 @@
     <t xml:space="preserve">«Госпожа Бовари»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Гюстав Флобер]</t>
-    </r>
+    <t xml:space="preserve">[Гюстав Флобер]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.labirint.ru/books/867653/, https://fantlab.ru/work218850]</t>
@@ -1528,61 +1207,13 @@
     <t xml:space="preserve">«Клаус»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Грант Моррисон, Дэн Мора]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Англия, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Коста-Рика]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[фэнтези, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">притча, графический роман]</t>
-    </r>
+    <t xml:space="preserve">[Грант Моррисон, Дэн Мора]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Англия, Коста-Рика]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[фэнтези, сказка, притча, графический роман]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1002907043-klaus-grant-morrison, https://fantlab.ru/work1100221]</t>
@@ -1591,70 +1222,19 @@
     <t xml:space="preserve">«Час кроткой воды»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Элеонора Раткевич]</t>
-    </r>
+    <t xml:space="preserve">[Элеонора Раткевич]</t>
   </si>
   <si>
     <t xml:space="preserve">[Латвия]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[фэнтези</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">]</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1003274931-chas-krotkoj-vody-eleonora-ratkevich, https://fantlab.ru/work1136339]</t>
   </si>
   <si>
     <t xml:space="preserve">«Фальшивомонетчики»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Андре Жид]</t>
-    </r>
+    <t xml:space="preserve">[Андре Жид]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1007280757-falshivomonetchiki-andre-zhid, https://fantlab.ru/work605295]</t>
@@ -1663,26 +1243,7 @@
     <t xml:space="preserve">«Дни Савелия»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Григорий Служитель]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[магический реализм]</t>
+    <t xml:space="preserve">[Григорий Служитель]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1005661381-dni-saveliya-grigorij-sluzhitel, https://fantlab.ru/work1041316]</t>
@@ -1691,42 +1252,10 @@
     <t xml:space="preserve">«Граф Аверин»</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Виктор Дашкевич]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[фэнтези</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, детектив]</t>
-    </r>
+    <t xml:space="preserve">[Виктор Дашкевич]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[фэнтези, детектив]</t>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1008788845-graf-averin-koldun-rossijskoj-imperii-viktor-dashkevich, https://fantlab.ru/work1760109]</t>
@@ -1738,34 +1267,6 @@
     <t xml:space="preserve">[Эдит Ева Эгер, Эсме Швалль-Вейганд]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">США, США</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">]</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">[реализм, историческая проза, биография]</t>
   </si>
   <si>
@@ -1773,25 +1274,6 @@
   </si>
   <si>
     <t xml:space="preserve">«Правда»</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Терри Пратчетт]</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">[https://www.livelib.ru/book/1008959485-pravda-terri-pratchett, https://fantlab.ru/work1946]</t>
@@ -1804,7 +1286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1825,11 +1307,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1874,16 +1351,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1906,11 +1379,11 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A126" activeCellId="0" sqref="A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.46"/>
@@ -2966,7 +2439,7 @@
         <v>2004</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>704</v>
@@ -2981,15 +2454,15 @@
         <v>15</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>49</v>
@@ -2998,7 +2471,7 @@
         <v>1927</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>288</v>
@@ -3013,15 +2486,15 @@
         <v>4</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>30</v>
@@ -3045,15 +2518,15 @@
         <v>4</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>30</v>
@@ -3077,24 +2550,24 @@
         <v>4</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1925</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>320</v>
@@ -3109,15 +2582,15 @@
         <v>1</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>49</v>
@@ -3126,7 +2599,7 @@
         <v>1851</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>288</v>
@@ -3141,15 +2614,15 @@
         <v>29</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>13</v>
@@ -3173,15 +2646,15 @@
         <v>27</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>25</v>
@@ -3190,7 +2663,7 @@
         <v>2001</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>704</v>
@@ -3205,15 +2678,15 @@
         <v>2</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>13</v>
@@ -3237,15 +2710,15 @@
         <v>29</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>13</v>
@@ -3269,24 +2742,24 @@
         <v>16</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>1985</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>512</v>
@@ -3301,15 +2774,15 @@
         <v>4</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>30</v>
@@ -3333,15 +2806,15 @@
         <v>2</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>30</v>
@@ -3350,7 +2823,7 @@
         <v>1990</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>480</v>
@@ -3365,15 +2838,15 @@
         <v>14</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>30</v>
@@ -3382,7 +2855,7 @@
         <v>1985</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>414</v>
@@ -3397,15 +2870,15 @@
         <v>11</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>13</v>
@@ -3429,15 +2902,15 @@
         <v>29</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>13</v>
@@ -3446,7 +2919,7 @@
         <v>1985</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>320</v>
@@ -3461,15 +2934,15 @@
         <v>29</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>49</v>
@@ -3478,7 +2951,7 @@
         <v>1947</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>320</v>
@@ -3493,15 +2966,15 @@
         <v>26</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>56</v>
@@ -3525,15 +2998,15 @@
         <v>23</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>56</v>
@@ -3542,7 +3015,7 @@
         <v>1831</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>200</v>
@@ -3557,15 +3030,15 @@
         <v>28</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>25</v>
@@ -3589,15 +3062,15 @@
         <v>31</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>13</v>
@@ -3606,7 +3079,7 @@
         <v>1996</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>256</v>
@@ -3621,12 +3094,12 @@
         <v>29</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>52</v>
@@ -3653,12 +3126,12 @@
         <v>27</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>84</v>
@@ -3685,12 +3158,12 @@
         <v>24</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>95</v>
@@ -3702,7 +3175,7 @@
         <v>1848</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>480</v>
@@ -3717,15 +3190,15 @@
         <v>22</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>25</v>
@@ -3734,7 +3207,7 @@
         <v>1929</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>288</v>
@@ -3749,18 +3222,18 @@
         <v>26</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>2012</v>
@@ -3781,15 +3254,15 @@
         <v>23</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>13</v>
@@ -3813,15 +3286,15 @@
         <v>30</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>56</v>
@@ -3845,15 +3318,15 @@
         <v>27</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>13</v>
@@ -3877,15 +3350,15 @@
         <v>25</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>13</v>
@@ -3894,7 +3367,7 @@
         <v>1949</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>480</v>
@@ -3909,12 +3382,12 @@
         <v>29</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>21</v>
@@ -3941,15 +3414,15 @@
         <v>27</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>13</v>
@@ -3958,7 +3431,7 @@
         <v>1911</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>296</v>
@@ -3973,15 +3446,15 @@
         <v>24</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>30</v>
@@ -3990,7 +3463,7 @@
         <v>2000</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>384</v>
@@ -4005,12 +3478,12 @@
         <v>28</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>122</v>
@@ -4037,15 +3510,15 @@
         <v>2</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>30</v>
@@ -4054,7 +3527,7 @@
         <v>1936</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>448</v>
@@ -4069,12 +3542,12 @@
         <v>30</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>70</v>
@@ -4101,15 +3574,15 @@
         <v>4</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>30</v>
@@ -4133,15 +3606,15 @@
         <v>1</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>30</v>
@@ -4165,15 +3638,15 @@
         <v>1</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>30</v>
@@ -4197,15 +3670,15 @@
         <v>29</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>13</v>
@@ -4214,7 +3687,7 @@
         <v>1990</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>576</v>
@@ -4229,18 +3702,18 @@
         <v>28</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>2018</v>
@@ -4261,15 +3734,15 @@
         <v>25</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>30</v>
@@ -4293,15 +3766,15 @@
         <v>9</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>13</v>
@@ -4310,7 +3783,7 @@
         <v>1936</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>608</v>
@@ -4325,15 +3798,15 @@
         <v>6</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>13</v>
@@ -4342,7 +3815,7 @@
         <v>1968</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>320</v>
@@ -4357,15 +3830,15 @@
         <v>5</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>13</v>
@@ -4389,15 +3862,15 @@
         <v>1</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>13</v>
@@ -4406,7 +3879,7 @@
         <v>2006</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>720</v>
@@ -4421,18 +3894,18 @@
         <v>5</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>1931</v>
@@ -4453,15 +3926,15 @@
         <v>3</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>30</v>
@@ -4485,15 +3958,15 @@
         <v>7</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>30</v>
@@ -4517,15 +3990,15 @@
         <v>5</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>13</v>
@@ -4549,15 +4022,15 @@
         <v>30</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>49</v>
@@ -4566,7 +4039,7 @@
         <v>1979</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>416</v>
@@ -4581,15 +4054,15 @@
         <v>27</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>13</v>
@@ -4598,7 +4071,7 @@
         <v>2010</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>448</v>
@@ -4613,18 +4086,18 @@
         <v>3</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>2019</v>
@@ -4645,12 +4118,12 @@
         <v>24</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>48</v>
@@ -4677,15 +4150,15 @@
         <v>29</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>13</v>
@@ -4709,15 +4182,15 @@
         <v>26</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>13</v>
@@ -4741,15 +4214,15 @@
         <v>31</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>30</v>
@@ -4773,24 +4246,24 @@
         <v>28</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>480</v>
@@ -4805,15 +4278,15 @@
         <v>25</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>13</v>
@@ -4837,15 +4310,15 @@
         <v>30</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>30</v>
@@ -4869,15 +4342,15 @@
         <v>27</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>13</v>
@@ -4901,15 +4374,15 @@
         <v>29</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>25</v>
@@ -4933,15 +4406,15 @@
         <v>26</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>13</v>
@@ -4950,7 +4423,7 @@
         <v>2013</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>640</v>
@@ -4965,15 +4438,15 @@
         <v>26</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>25</v>
@@ -4997,15 +4470,15 @@
         <v>23</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>30</v>
@@ -5014,7 +4487,7 @@
         <v>2006</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>576</v>
@@ -5029,15 +4502,15 @@
         <v>4</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>13</v>
@@ -5046,7 +4519,7 @@
         <v>1965</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>448</v>
@@ -5061,15 +4534,15 @@
         <v>25</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>13</v>
@@ -5093,15 +4566,15 @@
         <v>30</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>25</v>
@@ -5125,15 +4598,15 @@
         <v>28</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>25</v>
@@ -5157,15 +4630,15 @@
         <v>28</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>25</v>
@@ -5189,15 +4662,15 @@
         <v>28</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>13</v>
@@ -5221,15 +4694,15 @@
         <v>24</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>13</v>
@@ -5253,15 +4726,15 @@
         <v>29</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>25</v>
@@ -5270,7 +4743,7 @@
         <v>1951</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>320</v>
@@ -5285,15 +4758,15 @@
         <v>26</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>25</v>
@@ -5317,18 +4790,18 @@
         <v>24</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>2006</v>
@@ -5349,15 +4822,15 @@
         <v>28</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>30</v>
@@ -5381,15 +4854,15 @@
         <v>25</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>30</v>
@@ -5413,15 +4886,15 @@
         <v>25</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>13</v>
@@ -5445,18 +4918,18 @@
         <v>1</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>1937</v>
@@ -5477,15 +4950,15 @@
         <v>29</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>30</v>
@@ -5509,15 +4982,15 @@
         <v>27</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>25</v>
@@ -5526,7 +4999,7 @@
         <v>2005</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>384</v>
@@ -5541,15 +5014,15 @@
         <v>24</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>30</v>
@@ -5558,7 +5031,7 @@
         <v>2022</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>720</v>
@@ -5573,15 +5046,15 @@
         <v>29</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>25</v>
@@ -5605,15 +5078,15 @@
         <v>26</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>381</v>
+        <v>84</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>30</v>
@@ -5637,15 +5110,15 @@
         <v>30</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>25</v>
@@ -5669,15 +5142,15 @@
         <v>28</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>56</v>
@@ -5701,24 +5174,24 @@
         <v>25</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>208</v>
@@ -5733,24 +5206,24 @@
         <v>23</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>397</v>
+        <v>104</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>526</v>
@@ -5765,15 +5238,15 @@
         <v>28</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>56</v>
@@ -5797,15 +5270,15 @@
         <v>25</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>30</v>
@@ -5814,7 +5287,7 @@
         <v>2018</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>380</v>
@@ -5829,15 +5302,15 @@
         <v>31</v>
       </c>
       <c r="K122" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>30</v>
@@ -5846,7 +5319,7 @@
         <v>2023</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>608</v>
@@ -5861,24 +5334,24 @@
         <v>28</v>
       </c>
       <c r="K123" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>412</v>
+        <v>99</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>413</v>
+      <c r="E124" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>352</v>
@@ -5893,15 +5366,15 @@
         <v>26</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>416</v>
+        <v>191</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>25</v>
@@ -5910,7 +5383,7 @@
         <v>2000</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>397</v>
+        <v>104</v>
       </c>
       <c r="F125" s="0" t="n">
         <v>480</v>
@@ -5925,7 +5398,7 @@
         <v>30</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
